--- a/vng-ip/NewIP/docs/Design/NewIP - TechnicalRequirements.xlsx
+++ b/vng-ip/NewIP/docs/Design/NewIP - TechnicalRequirements.xlsx
@@ -189,18 +189,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5"/>
@@ -520,29 +520,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="7"/>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4" t="s">
@@ -560,16 +560,16 @@
       <c r="C5" s="5">
         <v>5000</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5">
-        <v>60000</v>
-      </c>
-      <c r="F5" s="9" t="s">
+        <v>30000</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -587,13 +587,13 @@
       </c>
       <c r="E6" s="5">
         <f>E5*0.9</f>
-        <v>54000</v>
+        <v>27000</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>F5</f>
         <v>/sec</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -611,13 +611,13 @@
       </c>
       <c r="E7" s="5">
         <f>ROUND(E6/2,0)</f>
-        <v>27000</v>
+        <v>13500</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>F6</f>
         <v>/sec</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -635,13 +635,13 @@
       </c>
       <c r="E8" s="5">
         <f>ROUND(E6/3,0)</f>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>F7</f>
         <v>/sec</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
       <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -694,7 +694,7 @@
       <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -714,7 +714,7 @@
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -723,7 +723,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>27</v>
       </c>
     </row>
